--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>3086.568918731032</v>
+        <v>3288.16614843783</v>
       </c>
       <c r="R2">
-        <v>27779.12026857929</v>
+        <v>29593.49533594047</v>
       </c>
       <c r="S2">
-        <v>0.02787775858878197</v>
+        <v>0.03356273122210157</v>
       </c>
       <c r="T2">
-        <v>0.02787775858878197</v>
+        <v>0.03356273122210157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>13876.49550383441</v>
+        <v>12080.02056515265</v>
       </c>
       <c r="R3">
-        <v>124888.4595345097</v>
+        <v>108720.1850863738</v>
       </c>
       <c r="S3">
-        <v>0.1253319144654824</v>
+        <v>0.1233023104925209</v>
       </c>
       <c r="T3">
-        <v>0.1253319144654824</v>
+        <v>0.1233023104925209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>15321.79205852195</v>
+        <v>11595.13296386445</v>
       </c>
       <c r="R4">
-        <v>137896.1285266975</v>
+        <v>104356.19667478</v>
       </c>
       <c r="S4">
-        <v>0.1383857711917214</v>
+        <v>0.1183530009076944</v>
       </c>
       <c r="T4">
-        <v>0.1383857711917214</v>
+        <v>0.1183530009076944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>2443.764664091314</v>
+        <v>2114.67302947692</v>
       </c>
       <c r="R5">
-        <v>21993.88197682183</v>
+        <v>19032.05726529228</v>
       </c>
       <c r="S5">
-        <v>0.02207197802709105</v>
+        <v>0.02158473729944582</v>
       </c>
       <c r="T5">
-        <v>0.02207197802709105</v>
+        <v>0.02158473729944582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H6">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>13648.99957238509</v>
+        <v>10575.0368510127</v>
       </c>
       <c r="R6">
-        <v>122840.9961514658</v>
+        <v>95175.33165911429</v>
       </c>
       <c r="S6">
-        <v>0.1232771809332463</v>
+        <v>0.1079407497893561</v>
       </c>
       <c r="T6">
-        <v>0.1232771809332463</v>
+        <v>0.1079407497893561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>3874.751976955546</v>
+        <v>4741.697119744935</v>
       </c>
       <c r="R7">
-        <v>34872.76779259991</v>
+        <v>42675.27407770441</v>
       </c>
       <c r="S7">
-        <v>0.03499659429259785</v>
+        <v>0.04839910721732235</v>
       </c>
       <c r="T7">
-        <v>0.03499659429259785</v>
+        <v>0.04839910721732235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>17419.98309527543</v>
+        <v>17419.98309527542</v>
       </c>
       <c r="R8">
         <v>156779.8478574788</v>
       </c>
       <c r="S8">
-        <v>0.1573365429826223</v>
+        <v>0.1778079890512979</v>
       </c>
       <c r="T8">
-        <v>0.1573365429826223</v>
+        <v>0.1778079890512979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>19234.34908871805</v>
+        <v>16720.75135374052</v>
       </c>
       <c r="R9">
-        <v>173109.1417984625</v>
+        <v>150486.7621836647</v>
       </c>
       <c r="S9">
-        <v>0.1737238191098257</v>
+        <v>0.1706708414913282</v>
       </c>
       <c r="T9">
-        <v>0.1737238191098258</v>
+        <v>0.1706708414913282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>3067.801890292755</v>
+        <v>3049.46239344894</v>
       </c>
       <c r="R10">
-        <v>27610.21701263479</v>
+        <v>27445.16154104046</v>
       </c>
       <c r="S10">
-        <v>0.0277082555898189</v>
+        <v>0.03112625155266494</v>
       </c>
       <c r="T10">
-        <v>0.0277082555898189</v>
+        <v>0.03112625155266494</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>17134.39403721707</v>
+        <v>15249.72264600015</v>
       </c>
       <c r="R11">
-        <v>154209.5463349536</v>
+        <v>137247.5038140013</v>
       </c>
       <c r="S11">
-        <v>0.1547571148130995</v>
+        <v>0.1556558638688192</v>
       </c>
       <c r="T11">
-        <v>0.1547571148130995</v>
+        <v>0.1556558638688193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>0.8710169076910002</v>
+        <v>12.36108587356367</v>
       </c>
       <c r="R12">
-        <v>7.839152169219001</v>
+        <v>111.249772862073</v>
       </c>
       <c r="S12">
-        <v>7.866987492811287E-06</v>
+        <v>0.0001261711799401727</v>
       </c>
       <c r="T12">
-        <v>7.866987492811287E-06</v>
+        <v>0.0001261711799401727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>3.915889300248333</v>
+        <v>45.41199100635721</v>
       </c>
       <c r="R13">
-        <v>35.243003702235</v>
+        <v>408.707919057215</v>
       </c>
       <c r="S13">
-        <v>3.536814483883237E-05</v>
+        <v>0.0004635259836644713</v>
       </c>
       <c r="T13">
-        <v>3.536814483883237E-05</v>
+        <v>0.0004635259836644713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H14">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>4.323745975056667</v>
+        <v>43.58917031908832</v>
       </c>
       <c r="R14">
-        <v>38.91371377551</v>
+        <v>392.302532871795</v>
       </c>
       <c r="S14">
-        <v>3.905188889849997E-05</v>
+        <v>0.0004449202204423308</v>
       </c>
       <c r="T14">
-        <v>3.905188889849998E-05</v>
+        <v>0.0004449202204423308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H15">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>0.6896202213156666</v>
+        <v>7.949614992627999</v>
       </c>
       <c r="R15">
-        <v>6.206581991840999</v>
+        <v>71.546534933652</v>
       </c>
       <c r="S15">
-        <v>6.228620372320883E-06</v>
+        <v>8.114273405664773E-05</v>
       </c>
       <c r="T15">
-        <v>6.228620372320883E-06</v>
+        <v>8.114273405664773E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H16">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>3.851690894853667</v>
+        <v>39.75435933904111</v>
       </c>
       <c r="R16">
-        <v>34.665218053683</v>
+        <v>357.78923405137</v>
       </c>
       <c r="S16">
-        <v>3.478830758442463E-05</v>
+        <v>0.0004057778157095177</v>
       </c>
       <c r="T16">
-        <v>3.478830758442463E-05</v>
+        <v>0.0004057778157095177</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H17">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>99.433538699596</v>
+        <v>76.710341308084</v>
       </c>
       <c r="R17">
-        <v>894.9018482963639</v>
+        <v>690.3930717727559</v>
       </c>
       <c r="S17">
-        <v>0.0008980794728650609</v>
+        <v>0.0007829922367219995</v>
       </c>
       <c r="T17">
-        <v>0.000898079472865061</v>
+        <v>0.0007829922367219995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H18">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>447.0300482590733</v>
+        <v>281.8174200235533</v>
       </c>
       <c r="R18">
-        <v>4023.27043433166</v>
+        <v>2536.35678021198</v>
       </c>
       <c r="S18">
-        <v>0.00403755629484584</v>
+        <v>0.002876546346798892</v>
       </c>
       <c r="T18">
-        <v>0.004037556294845841</v>
+        <v>0.002876546346798892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H19">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>493.5901461175066</v>
+        <v>270.5053719968599</v>
       </c>
       <c r="R19">
-        <v>4442.31131505756</v>
+        <v>2434.54834797174</v>
       </c>
       <c r="S19">
-        <v>0.004458085109248956</v>
+        <v>0.00276108282994717</v>
       </c>
       <c r="T19">
-        <v>0.004458085109248957</v>
+        <v>0.00276108282994717</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H20">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>78.72565774411065</v>
+        <v>49.33366579521599</v>
       </c>
       <c r="R20">
-        <v>708.5309196969959</v>
+        <v>444.0029921569439</v>
       </c>
       <c r="S20">
-        <v>0.0007110467768967509</v>
+        <v>0.000503555018371702</v>
       </c>
       <c r="T20">
-        <v>0.000711046776896751</v>
+        <v>0.000503555018371702</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H21">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>439.7012873924386</v>
+        <v>246.7073285126266</v>
       </c>
       <c r="R21">
-        <v>3957.311586531947</v>
+        <v>2220.36595661364</v>
       </c>
       <c r="S21">
-        <v>0.003971363239847103</v>
+        <v>0.002518173165101714</v>
       </c>
       <c r="T21">
-        <v>0.003971363239847104</v>
+        <v>0.002518173165101715</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H22">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J22">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>2.356792866200667</v>
+        <v>5.138716716374001</v>
       </c>
       <c r="R22">
-        <v>21.211135795806</v>
+        <v>46.248450447366</v>
       </c>
       <c r="S22">
-        <v>2.128645246473794E-05</v>
+        <v>5.245153687264834E-05</v>
       </c>
       <c r="T22">
-        <v>2.128645246473795E-05</v>
+        <v>5.245153687264834E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H23">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J23">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>10.59559221659889</v>
+        <v>18.87854834883667</v>
       </c>
       <c r="R23">
-        <v>95.36032994939001</v>
+        <v>169.90693513953</v>
       </c>
       <c r="S23">
-        <v>9.569893616403028E-05</v>
+        <v>0.0001926957506075166</v>
       </c>
       <c r="T23">
-        <v>9.569893616403029E-05</v>
+        <v>0.0001926957506075166</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H24">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J24">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>11.69916861463778</v>
+        <v>18.12077033221</v>
       </c>
       <c r="R24">
-        <v>105.29251753174</v>
+        <v>163.08693298989</v>
       </c>
       <c r="S24">
-        <v>0.00010566639103669</v>
+        <v>0.0001849610137511868</v>
       </c>
       <c r="T24">
-        <v>0.00010566639103669</v>
+        <v>0.0001849610137511868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H25">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J25">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>1.865970687403778</v>
+        <v>3.304792141176</v>
       </c>
       <c r="R25">
-        <v>16.793736186634</v>
+        <v>29.743129270584</v>
       </c>
       <c r="S25">
-        <v>1.685336751805705E-05</v>
+        <v>3.373243485031906E-05</v>
       </c>
       <c r="T25">
-        <v>1.685336751805705E-05</v>
+        <v>3.373243485031906E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H26">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J26">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>10.42188451641578</v>
+        <v>16.52657322939334</v>
       </c>
       <c r="R26">
-        <v>93.796960647742</v>
+        <v>148.73915906454</v>
       </c>
       <c r="S26">
-        <v>9.413001563828733E-05</v>
+        <v>0.0001686888406122751</v>
       </c>
       <c r="T26">
-        <v>9.413001563828737E-05</v>
+        <v>0.0001686888406122752</v>
       </c>
     </row>
   </sheetData>
